--- a/tests/expect_result/excel轉檔測試/excel欄位測試2_TextID_mapping.xlsx
+++ b/tests/expect_result/excel轉檔測試/excel欄位測試2_TextID_mapping.xlsx
@@ -448,180 +448,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02e8932823</t>
+          <t>207af8cffc-15fc93b948</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02e8932823</t>
+          <t>207af8cffc-15fc93b948</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1002ece57f</t>
+          <t>207af8cffc-45bc5d3397</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1002ece57f</t>
+          <t>207af8cffc-45bc5d3397</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15fc93b948</t>
+          <t>207af8cffc-4c7e8364cf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15fc93b948</t>
+          <t>207af8cffc-4c7e8364cf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>45bc5d3397</t>
+          <t>207af8cffc-5c34b4bc84</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45bc5d3397</t>
+          <t>207af8cffc-5c34b4bc84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4c7e8364cf</t>
+          <t>207af8cffc-750f0cfa28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4c7e8364cf</t>
+          <t>207af8cffc-750f0cfa28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5c34b4bc84</t>
+          <t>207af8cffc-753e0743b0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5c34b4bc84</t>
+          <t>207af8cffc-753e0743b0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>750f0cfa28</t>
+          <t>207af8cffc-89d8fe5c24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>750f0cfa28</t>
+          <t>207af8cffc-89d8fe5c24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>753e0743b0</t>
+          <t>207af8cffc-aeda3f4cbe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>753e0743b0</t>
+          <t>207af8cffc-aeda3f4cbe</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>89d8fe5c24</t>
+          <t>207af8cffc-b5755d9969</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>89d8fe5c24</t>
+          <t>207af8cffc-b5755d9969</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aeda3f4cbe</t>
+          <t>207af8cffc-ff47c4299f</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>aeda3f4cbe</t>
+          <t>207af8cffc-ff47c4299f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>b5755d9969</t>
+          <t>5682d36d17-02e8932823</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b5755d9969</t>
+          <t>5682d36d17-02e8932823</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>b5b9581ebe</t>
+          <t>5682d36d17-1002ece57f</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>b5b9581ebe</t>
+          <t>5682d36d17-1002ece57f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>b735ff3ad3</t>
+          <t>5682d36d17-b5b9581ebe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>b735ff3ad3</t>
+          <t>5682d36d17-b5b9581ebe</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dc368eeb19</t>
+          <t>5682d36d17-b735ff3ad3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dc368eeb19</t>
+          <t>5682d36d17-b735ff3ad3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ff47c4299f</t>
+          <t>5682d36d17-dc368eeb19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ff47c4299f</t>
+          <t>5682d36d17-dc368eeb19</t>
         </is>
       </c>
     </row>
